--- a/biology/Zoologie/Astralium/Astralium.xlsx
+++ b/biology/Zoologie/Astralium/Astralium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astralium est un genre de gastéropodes marins qui appartient à la famille des Turbinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (17 janvier 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (17 janvier 2020) :
 Astralium asteriscum (Reeve, 1843)
 Astralium calcar (Linnaeus, 1758)
 Astralium cepoides Smith, 1880
@@ -541,7 +555,7 @@
 Astralium tentorium (Thiele, 1930)
 Astralium wallisi T. Iredale, 1937
 Astralium yamamurae Habe &amp; Kosuge, 1966
-Selon Catalogue of Life                                   (17 janvier 2020)[4] :
+Selon Catalogue of Life                                   (17 janvier 2020) :
 Astralium asteriscum (Reeve, 1843)
 Astralium calcar (Linnaeus, 1758)
 Astralium confragosum (Gould, 1851)
@@ -564,7 +578,7 @@
 Astralium tentoriiforme (Jonas, 1845)
 Astralium tentorium (Thiele, 1930)
 Astralium wallisi (Iredale, 1937)
-Selon Paleobiology Database                   (17 janvier 2020)[5] :
+Selon Paleobiology Database                   (17 janvier 2020) :
 Astraea (Astralium) basalis
 Astraea (Astralium) eniwetokensis
 Astraea (Astralium) polkensis
@@ -581,7 +595,7 @@
 Astralium turritum
 Autralium squamiferum
 Bellastraea kesteveni
-Selon World Register of Marine Species                               (17 janvier 2020)[2] :
+Selon World Register of Marine Species                               (17 janvier 2020) :
 Astralium asteriscum (Reeve, 1843)
 Astralium calcar (Linnaeus, 1758)
 Astralium confragosum (Gould, 1849)
